--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC808B7-2961-4EF5-A907-C42D3F28AC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E349459-5641-4DCA-9EF5-BABA0A55492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1755" windowWidth="20550" windowHeight="11835" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5205" windowWidth="18270" windowHeight="10995" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10618,7 +10618,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10787,6 +10787,9 @@
       <c r="C12" t="s">
         <v>741</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
@@ -11023,7 +11026,7 @@
     <hyperlink ref="B35" r:id="rId5" tooltip="Insert into a Cyclic Sorted List" display="https://leetcode.com/problems/insert-into-a-cyclic-sorted-list" xr:uid="{3A783F57-6498-4AF1-9FDE-C302ABE1DBBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E349459-5641-4DCA-9EF5-BABA0A55492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3E2711-48F6-42E6-8393-681DE36128A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5205" windowWidth="18270" windowHeight="10995" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="27030" windowHeight="16500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -34,11 +34,12 @@
     <sheet name="Math" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10618,7 +10619,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10800,6 +10801,9 @@
       </c>
       <c r="C13" t="s">
         <v>741</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3E2711-48F6-42E6-8393-681DE36128A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51999B34-336C-465B-861F-963DA8D522CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="27030" windowHeight="16500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -34,12 +34,11 @@
     <sheet name="Math" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10619,7 +10618,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10816,6 +10815,9 @@
       <c r="C14" t="s">
         <v>741</v>
       </c>
+      <c r="D14" s="17" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
@@ -10850,6 +10852,9 @@
       </c>
       <c r="C18" t="s">
         <v>741</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51999B34-336C-465B-861F-963DA8D522CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F1571-6D33-4F36-8785-F2A2F638CC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10618,7 +10618,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10866,6 +10866,9 @@
       </c>
       <c r="C19" t="s">
         <v>741</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F1571-6D33-4F36-8785-F2A2F638CC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70966AC9-A78C-4F32-B06C-B939BE2F43A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="1215" windowWidth="17805" windowHeight="9615" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10617,8 +10617,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10895,6 +10895,9 @@
       <c r="C21" t="s">
         <v>741</v>
       </c>
+      <c r="D21" s="17" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3">
@@ -10906,6 +10909,9 @@
       <c r="C22" t="s">
         <v>740</v>
       </c>
+      <c r="D22" s="17" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="3">
@@ -10916,6 +10922,9 @@
       </c>
       <c r="C23" t="s">
         <v>741</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70966AC9-A78C-4F32-B06C-B939BE2F43A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F78ECF7-4C93-49EE-8478-B20D222C1B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1215" windowWidth="17805" windowHeight="9615" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="1230" windowWidth="17805" windowHeight="9615" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="756">
   <si>
     <t>Stack</t>
   </si>
@@ -10617,8 +10617,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10964,6 +10964,9 @@
       </c>
       <c r="C26" t="s">
         <v>741</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F78ECF7-4C93-49EE-8478-B20D222C1B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFA9A7-C33A-4034-8446-B33F16564589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1230" windowWidth="17805" windowHeight="9615" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="757">
   <si>
     <t>Stack</t>
   </si>
@@ -2314,6 +2314,10 @@
   </si>
   <si>
     <t>谷歌亚马逊</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2439,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2485,6 +2489,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3057,7 +3062,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10618,7 +10623,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11007,6 +11012,9 @@
       <c r="B31" s="6" t="s">
         <v>750</v>
       </c>
+      <c r="D31" s="17" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="6">
@@ -11015,29 +11023,35 @@
       <c r="B32" s="6" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="D32" s="19" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6">
         <v>725</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="D33" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6">
+        <v>708</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="6">
         <v>817</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="6">
-        <v>708</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -11046,8 +11060,8 @@
     <hyperlink ref="B31" r:id="rId1" tooltip="Plus One Linked List" display="https://leetcode.com/problems/plus-one-linked-list" xr:uid="{E230F04D-4C25-4AA7-B818-F471EFF12B0E}"/>
     <hyperlink ref="B32" r:id="rId2" tooltip="Design Phone Directory" display="https://leetcode.com/problems/design-phone-directory" xr:uid="{99A09C7A-68F5-433D-881E-DC99B61BD689}"/>
     <hyperlink ref="B33" r:id="rId3" tooltip="Split Linked List in Parts" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{82D0586E-3032-4EAE-8D31-78BC93E47107}"/>
-    <hyperlink ref="B34" r:id="rId4" tooltip="Linked List Components" display="https://leetcode.com/problems/linked-list-components" xr:uid="{C1D5CDB4-0BBC-4306-8657-2A529FF8C333}"/>
-    <hyperlink ref="B35" r:id="rId5" tooltip="Insert into a Cyclic Sorted List" display="https://leetcode.com/problems/insert-into-a-cyclic-sorted-list" xr:uid="{3A783F57-6498-4AF1-9FDE-C302ABE1DBBC}"/>
+    <hyperlink ref="B35" r:id="rId4" tooltip="Linked List Components" display="https://leetcode.com/problems/linked-list-components" xr:uid="{C1D5CDB4-0BBC-4306-8657-2A529FF8C333}"/>
+    <hyperlink ref="B34" r:id="rId5" tooltip="Insert into a Cyclic Sorted List" display="https://leetcode.com/problems/insert-into-a-cyclic-sorted-list" xr:uid="{3A783F57-6498-4AF1-9FDE-C302ABE1DBBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -15358,7 +15372,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954642E9-7567-41B7-AF5E-756919C43B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66742765-ED6E-4CCE-9E72-9BB87827229C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="12220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10622,8 +10622,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8C0A5-D97E-4B48-9BD0-8FDF1A0F66AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C211B18-FAE2-443A-A3E5-8BBBD07E3567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="12220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35370" yWindow="3930" windowWidth="20550" windowHeight="11715" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="757">
   <si>
     <t>Stack</t>
   </si>
@@ -10623,7 +10623,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11033,6 +11033,9 @@
       </c>
       <c r="B33" s="6" t="s">
         <v>754</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">

--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C211B18-FAE2-443A-A3E5-8BBBD07E3567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D400F9DA-D4A5-456D-BEDE-32C37958CC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35370" yWindow="3930" windowWidth="20550" windowHeight="11715" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack &amp; PriorityQueue" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="757">
   <si>
     <t>Stack</t>
   </si>
@@ -3073,7 +3073,7 @@
   </sheetPr>
   <dimension ref="A1:E684"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
@@ -10622,8 +10622,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11055,6 +11055,9 @@
       </c>
       <c r="B35" s="6" t="s">
         <v>753</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -14952,7 +14955,7 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -15386,7 +15389,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
